--- a/Functional skills maths/content/individual topics.xlsx
+++ b/Functional skills maths/content/individual topics.xlsx
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -133,6 +133,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -395,8 +398,8 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">

--- a/Functional skills maths/content/individual topics.xlsx
+++ b/Functional skills maths/content/individual topics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>topic</t>
   </si>
@@ -27,65 +27,104 @@
     <t>pdf/exercise</t>
   </si>
   <si>
-    <t>Adding</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/PGc33iLXaTE</t>
+    <t>N1 Ordering positive and Negative Numbers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/-D_nMBXrnIE</t>
   </si>
   <si>
     <t>adding</t>
   </si>
   <si>
-    <t>subtracting</t>
+    <t>N2 Calculations and estimations</t>
+  </si>
+  <si>
+    <t>N3 Substitution</t>
   </si>
   <si>
     <t>multiplying</t>
   </si>
   <si>
-    <t>decimals</t>
-  </si>
-  <si>
-    <t>fractions</t>
-  </si>
-  <si>
-    <t>fdp</t>
-  </si>
-  <si>
-    <t>percentages</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
+    <t>N4 FDP Equivalence</t>
+  </si>
+  <si>
+    <t>N5 Percentages of amounts. One number as a % of another</t>
+  </si>
+  <si>
+    <t>N6 Percentage Change/Reverse %</t>
+  </si>
+  <si>
+    <t>N7 Fractions. Ordering and 4 operations</t>
+  </si>
+  <si>
+    <t>N8 One number as a fractions of another</t>
+  </si>
+  <si>
+    <t>N9 Order, approximate and compare decimals</t>
+  </si>
+  <si>
+    <t>N10 4 operations with decimals</t>
+  </si>
+  <si>
+    <t>N11 Ratio, direct proportion and inverse proportion</t>
+  </si>
+  <si>
+    <t>N12 Order of operations</t>
+  </si>
+  <si>
+    <t>SSM13 Percentage change and compound (contextual)</t>
+  </si>
+  <si>
+    <t>SSM14 Conversion (metric and imperial)</t>
+  </si>
+  <si>
+    <t>SSM15 Compound measures (speed, density, pay)</t>
+  </si>
+  <si>
+    <t>SSM16 Perimiter and Area of 2D shapes</t>
+  </si>
+  <si>
+    <t>N17 Volume and SA of 3D shapes</t>
+  </si>
+  <si>
+    <t>NScale Diagrams</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>Nets</t>
+  </si>
+  <si>
+    <t>Plans and elevations</t>
+  </si>
+  <si>
+    <t>Angles and coordinates of 2D and 3D shapes</t>
+  </si>
+  <si>
+    <t>Median and mode</t>
+  </si>
+  <si>
+    <t>Mean from grouped</t>
+  </si>
+  <si>
+    <t>All averages to compare</t>
+  </si>
+  <si>
+    <t>Probability (combined events)</t>
+  </si>
+  <si>
+    <t>Probability (single event)</t>
+  </si>
+  <si>
+    <t>Scatter Diagrams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -101,6 +140,11 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -124,18 +168,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -352,9 +397,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.14"/>
-    <col customWidth="1" min="2" max="2" width="35.14"/>
-    <col customWidth="1" min="3" max="3" width="28.86"/>
+    <col customWidth="1" min="1" max="1" width="32.0"/>
+    <col customWidth="1" min="2" max="2" width="62.86"/>
+    <col customWidth="1" min="3" max="3" width="74.0"/>
     <col customWidth="1" min="4" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -370,10 +415,10 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -381,182 +426,200 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
     <row r="32" ht="14.25" customHeight="1"/>
@@ -1531,16 +1594,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Functional skills maths/content/individual topics.xlsx
+++ b/Functional skills maths/content/individual topics.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgl103W/Xb4VYA3M7R6LU5kQ7OvJw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh5l3jrJCKMBOIk0R++uHM+RgGm2A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>topic</t>
   </si>
@@ -30,94 +30,235 @@
     <t>N1 Ordering positive and Negative Numbers</t>
   </si>
   <si>
+    <t>https://www.youtube.com/embed/bRENrfWoKXY</t>
+  </si>
+  <si>
+    <t>adding</t>
+  </si>
+  <si>
+    <t>N2 Calculations and estimations</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/cOEh0c7TpMY</t>
+  </si>
+  <si>
+    <t>N3 Substitution</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/</t>
+  </si>
+  <si>
+    <t>multiplying</t>
+  </si>
+  <si>
+    <t>N4 FDP Equivalence</t>
+  </si>
+  <si>
+    <t>N5 Percentages of amounts. One number as a % of another</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/5NQHiVmpFBE</t>
+  </si>
+  <si>
+    <t>N6 Percentage Change</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/O-ecXvaf3YE</t>
+  </si>
+  <si>
+    <t>N6 Compound Percentages</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/B7goa36Q5ww</t>
+  </si>
+  <si>
+    <t>N6 Percentage Change/Reverse %</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/0ThA7CiSpr8</t>
+  </si>
+  <si>
+    <t>N7 Fractions. Ordering and 4 operations</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/kHhHy6mt9yw</t>
+  </si>
+  <si>
+    <t>N8 One number as a fractions of another</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/_yQL-VqQjJE</t>
+  </si>
+  <si>
+    <t>N9 Order, approximate and compare decimals</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/g1l1PdZ9gJQ</t>
+  </si>
+  <si>
+    <t>N10 4 operations with decimals (addition)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/9G6lJbfo0dQ</t>
+  </si>
+  <si>
+    <t>N10 4 operations with decimals (subtraction)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ZjJJDpxMT9Y</t>
+  </si>
+  <si>
+    <t>N10 4 operations with decimals (Multiplication)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/tMdGlVyiIWI</t>
+  </si>
+  <si>
+    <t>N10 4 operations with decimals (Division)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/hVpefl-YxcU</t>
+  </si>
+  <si>
+    <t>N11 Direct and inverse proportion</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Rxj-DvtVBg4</t>
+  </si>
+  <si>
+    <t>N11 Ratio</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/22wgmn5PU7s</t>
+  </si>
+  <si>
+    <t>N12 Order of operations</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/embed/-D_nMBXrnIE</t>
   </si>
   <si>
-    <t>adding</t>
-  </si>
-  <si>
-    <t>N2 Calculations and estimations</t>
-  </si>
-  <si>
-    <t>N3 Substitution</t>
-  </si>
-  <si>
-    <t>multiplying</t>
-  </si>
-  <si>
-    <t>N4 FDP Equivalence</t>
-  </si>
-  <si>
-    <t>N5 Percentages of amounts. One number as a % of another</t>
-  </si>
-  <si>
-    <t>N6 Percentage Change/Reverse %</t>
-  </si>
-  <si>
-    <t>N7 Fractions. Ordering and 4 operations</t>
-  </si>
-  <si>
-    <t>N8 One number as a fractions of another</t>
-  </si>
-  <si>
-    <t>N9 Order, approximate and compare decimals</t>
-  </si>
-  <si>
-    <t>N10 4 operations with decimals</t>
-  </si>
-  <si>
-    <t>N11 Ratio, direct proportion and inverse proportion</t>
-  </si>
-  <si>
-    <t>N12 Order of operations</t>
-  </si>
-  <si>
     <t>SSM13 Percentage change and compound (contextual)</t>
   </si>
   <si>
     <t>SSM14 Conversion (metric and imperial)</t>
   </si>
   <si>
-    <t>SSM15 Compound measures (speed, density, pay)</t>
-  </si>
-  <si>
-    <t>SSM16 Perimiter and Area of 2D shapes</t>
-  </si>
-  <si>
-    <t>N17 Volume and SA of 3D shapes</t>
-  </si>
-  <si>
-    <t>NScale Diagrams</t>
-  </si>
-  <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
-    <t>Nets</t>
-  </si>
-  <si>
-    <t>Plans and elevations</t>
-  </si>
-  <si>
-    <t>Angles and coordinates of 2D and 3D shapes</t>
-  </si>
-  <si>
-    <t>Median and mode</t>
-  </si>
-  <si>
-    <t>Mean from grouped</t>
-  </si>
-  <si>
-    <t>All averages to compare</t>
-  </si>
-  <si>
-    <t>Probability (combined events)</t>
-  </si>
-  <si>
-    <t>Probability (single event)</t>
-  </si>
-  <si>
-    <t>Scatter Diagrams</t>
+    <t>https://www.youtube.com/embed/Xl2Mydum23E</t>
+  </si>
+  <si>
+    <t>SSM14 Conversion Graphs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/S-FWZ1uIchY</t>
+  </si>
+  <si>
+    <t>SSM15 Compound measures (Speed)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/y2oGJ0Zv9TE</t>
+  </si>
+  <si>
+    <t>SSM15 Compound measures (Density)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/INCNUa4HSIk</t>
+  </si>
+  <si>
+    <t>SSM15 Compound measures (Rates of Pay)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/prZCt3DQX8g</t>
+  </si>
+  <si>
+    <t>SSM16 The four basic shapes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/OgyzocgFi7E</t>
+  </si>
+  <si>
+    <t>SSM16 Compound Shapes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EH8jQb7SsG8</t>
+  </si>
+  <si>
+    <t>SSM16 Circles</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/dH4Ylcx6h-Q</t>
+  </si>
+  <si>
+    <t>SSM17 Cuboids and Prisms</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/z1tnMa-iAHM</t>
+  </si>
+  <si>
+    <t>SSM17 Cones and Pyramids</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/VjZA-RDtzbE</t>
+  </si>
+  <si>
+    <t>SSM17 Spheres</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/eS8Eddc9QQM</t>
+  </si>
+  <si>
+    <t>SSM18 Scale Diagrams</t>
+  </si>
+  <si>
+    <t>SSM19 Coordinates</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/PhVbhjpF5y0</t>
+  </si>
+  <si>
+    <t>SSM21 Plans and elevations</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/wZHyxxvF8Q8</t>
+  </si>
+  <si>
+    <t>SSM22 Angles and coordinates of 2D and 3D shapes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ZW2TU62_PNA</t>
+  </si>
+  <si>
+    <t>H23 Median and mode</t>
+  </si>
+  <si>
+    <t>H24 Mean from grouped</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/wHQgdb0JSJc</t>
+  </si>
+  <si>
+    <t>H25 All averages to compare</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/tsj-lnkQmy0</t>
+  </si>
+  <si>
+    <t>H26 Probability (combined events)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/mDnhBshAXsA</t>
+  </si>
+  <si>
+    <t>H27 Probability (single event)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/kzAQ7EkVTPI</t>
+  </si>
+  <si>
+    <t>H28 Scatter Diagrams</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/MlamOZMnX_c</t>
   </si>
 </sst>
 </file>
@@ -143,15 +284,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="11.0"/>
-      <color theme="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF0563C1"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,8 +321,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -397,7 +543,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.0"/>
+    <col customWidth="1" min="1" max="1" width="53.0"/>
     <col customWidth="1" min="2" max="2" width="62.86"/>
     <col customWidth="1" min="3" max="3" width="74.0"/>
     <col customWidth="1" min="4" max="26" width="8.71"/>
@@ -429,210 +575,375 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
+        <v>57</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="43" ht="14.25" customHeight="1"/>
     <row r="44" ht="14.25" customHeight="1"/>
     <row r="45" ht="14.25" customHeight="1"/>
@@ -1591,13 +1902,64 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
+    <row r="1009" ht="14.25" customHeight="1"/>
+    <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
+    <row r="1013" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
+    <hyperlink r:id="rId15" ref="B16"/>
+    <hyperlink r:id="rId16" ref="B17"/>
+    <hyperlink r:id="rId17" ref="B18"/>
+    <hyperlink r:id="rId18" ref="B19"/>
+    <hyperlink r:id="rId19" ref="B20"/>
+    <hyperlink r:id="rId20" ref="B21"/>
+    <hyperlink r:id="rId21" ref="B22"/>
+    <hyperlink r:id="rId22" ref="B23"/>
+    <hyperlink r:id="rId23" ref="B24"/>
+    <hyperlink r:id="rId24" ref="B25"/>
+    <hyperlink r:id="rId25" ref="B26"/>
+    <hyperlink r:id="rId26" ref="B27"/>
+    <hyperlink r:id="rId27" ref="B28"/>
+    <hyperlink r:id="rId28" ref="B29"/>
+    <hyperlink r:id="rId29" ref="B30"/>
+    <hyperlink r:id="rId30" ref="B31"/>
+    <hyperlink r:id="rId31" ref="B33"/>
+    <hyperlink r:id="rId32" ref="B35"/>
+    <hyperlink r:id="rId33" ref="B36"/>
+    <hyperlink r:id="rId34" ref="B37"/>
+    <hyperlink r:id="rId35" ref="B38"/>
+    <hyperlink r:id="rId36" ref="B39"/>
+    <hyperlink r:id="rId37" ref="B40"/>
+    <hyperlink r:id="rId38" ref="B41"/>
+    <hyperlink r:id="rId39" ref="B42"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>